--- a/data/trans_camb/P16B09-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Clase-trans_camb.xlsx
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,0</t>
+          <t>0,0; 36,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,16</t>
+          <t>0,0; 37,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,64</t>
+          <t>0,0; 19,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,79</t>
+          <t>0,0; 16,68</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,25</t>
+          <t>0,0; 56,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,54</t>
+          <t>0,0; 59,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,44</t>
+          <t>0,0; 24,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,87</t>
+          <t>0,0; 20,02</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,86</t>
+          <t>0,0; 26,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,43</t>
+          <t>0,0; 25,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,29</t>
+          <t>0,0; 17,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,02</t>
+          <t>0,0; 18,87</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,73</t>
+          <t>0,0; 35,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,09</t>
+          <t>0,0; 34,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,91</t>
+          <t>0,0; 20,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,08</t>
+          <t>0,0; 23,28</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,1</t>
+          <t>0,0; 8,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,79</t>
+          <t>0,0; 8,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,63</t>
+          <t>0,0; 7,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,3</t>
+          <t>0,0; 7,16</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,23</t>
+          <t>0,0; 9,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,12</t>
+          <t>0,0; 9,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,1</t>
+          <t>0,0; 8,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,6</t>
+          <t>0,0; 7,72</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 0,0</t>
+          <t>-9,53; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 0,0</t>
+          <t>-19,79; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 0,0</t>
+          <t>-8,61; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 0,0</t>
+          <t>-15,26; 0,0</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 0,0</t>
+          <t>-9,53; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 0,0</t>
+          <t>-19,79; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 0,0</t>
+          <t>-8,61; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 0,0</t>
+          <t>-15,26; 0,0</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 6,16</t>
+          <t>-3,1; 6,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,25</t>
+          <t>0,0; 9,32</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 6,25</t>
+          <t>-3,1; 6,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,56</t>
+          <t>0,0; 9,67</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 6,52</t>
+          <t>-3,13; 6,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,19</t>
+          <t>0,0; 10,27</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 6,68</t>
+          <t>-3,12; 6,69</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,37</t>
+          <t>0,0; 10,71</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,9</t>
+          <t>0,86; 7,98</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,79</t>
+          <t>0,86; 7,9</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,35</t>
+          <t>-2,57; 2,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,11</t>
+          <t>-4,81; 2,34</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,15</t>
+          <t>-1,24; 3,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,1</t>
+          <t>-2,68; 2,9</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,58</t>
+          <t>0,86; 8,67</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,44</t>
+          <t>0,87; 8,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,43</t>
+          <t>-2,59; 2,5</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,15</t>
+          <t>-4,87; 2,4</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,26</t>
+          <t>-1,24; 3,17</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 3,2</t>
+          <t>-2,69; 2,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B09-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B09-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
